--- a/backend-python/general_document/标准采购订单.xlsx
+++ b/backend-python/general_document/标准采购订单.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>材料订购单</t>
   </si>
@@ -61,27 +61,6 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>合   计</t>
-  </si>
-  <si>
-    <t>环境要求：</t>
-  </si>
-  <si>
-    <t>发货地址：</t>
-  </si>
-  <si>
-    <t>交货周期：</t>
-  </si>
-  <si>
-    <t>如有特殊情况提前5天反馈，无故延期有贵公司承担后续责任。</t>
-  </si>
-  <si>
-    <t>制表：</t>
-  </si>
-  <si>
-    <t>审核：</t>
-  </si>
 </sst>
 </file>
 
@@ -93,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -128,36 +107,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -498,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -519,43 +468,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -685,133 +597,133 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -866,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,23 +788,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,77 +815,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1316,13 +1159,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="3" customWidth="1"/>
@@ -1331,27 +1174,27 @@
     <col min="5" max="6" width="8.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1360,7 +1203,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:8">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1386,797 +1229,659 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="11">
-        <f>SUM(E4:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:10">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:10">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:10">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:10">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:10">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:10">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:10">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:10">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:10">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="1:10">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:10">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" ht="30" customHeight="1" spans="1:10">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" ht="30" customHeight="1" spans="1:10">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" ht="30" customHeight="1" spans="1:10">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" ht="30" customHeight="1" spans="1:10">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+    <row r="38" customHeight="1" spans="1:10">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
+    <row r="39" customHeight="1" spans="1:10">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:10">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" ht="30" customHeight="1" spans="1:10">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" ht="30" customHeight="1" spans="1:10">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" ht="30" customHeight="1" spans="1:10">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" ht="30" customHeight="1" spans="1:10">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
+    <row r="49" customHeight="1" spans="1:10">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" ht="30" customHeight="1" spans="1:10">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" ht="30" customHeight="1" spans="1:10">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
+    <row r="51" customHeight="1" spans="1:10">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" ht="30" customHeight="1" spans="1:10">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
+    <row r="52" customHeight="1" spans="1:10">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
+    <row r="53" customHeight="1" spans="1:10">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
+    <row r="54" customHeight="1" spans="1:10">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
+    <row r="55" customHeight="1" spans="1:10">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
+    <row r="56" customHeight="1" spans="1:10">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:10">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" ht="30" customHeight="1" spans="1:10">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" ht="30" customHeight="1" spans="1:10">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:10">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:10">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:10">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" ht="30" customHeight="1" spans="1:10">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-    </row>
-    <row r="66" ht="30" customHeight="1" spans="1:10">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0" top="0.196850393700787" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="180"/>
